--- a/catalogoIPP_test.xlsx
+++ b/catalogoIPP_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14535" windowHeight="11730"/>
+    <workbookView windowWidth="15420" windowHeight="11145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="1844">
   <si>
     <t>CCP</t>
   </si>
@@ -5624,12 +5624,6 @@
   </si>
   <si>
     <t>P4302013</t>
-  </si>
-  <si>
-    <t>C1020.1.2.1</t>
-  </si>
-  <si>
-    <t>C1020.1.2.2</t>
   </si>
   <si>
     <t>Conservas de frutas</t>
@@ -13393,7 +13387,7 @@
   <sheetPr/>
   <dimension ref="A1:N737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+    <sheetView topLeftCell="A651" workbookViewId="0">
       <selection activeCell="C673" sqref="C673"/>
     </sheetView>
   </sheetViews>
@@ -29807,8 +29801,8 @@
   <sheetPr/>
   <dimension ref="A1:N739"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E742" sqref="E742"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -30672,7 +30666,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1803</v>
+        <v>97</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>98</v>
@@ -30701,7 +30695,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1804</v>
+        <v>100</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>101</v>
@@ -31428,7 +31422,7 @@
         <v>174</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -31486,7 +31480,7 @@
         <v>180</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -32172,7 +32166,7 @@
         <v>249</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -33979,7 +33973,7 @@
         <v>425</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>427</v>
@@ -34006,7 +34000,7 @@
         <v>428</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="18" t="s">
@@ -34164,7 +34158,7 @@
         <v>442</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>427</v>
@@ -34432,7 +34426,7 @@
         <v>464</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -35126,7 +35120,7 @@
         <v>527</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -35289,7 +35283,7 @@
         <v>543</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -35873,7 +35867,7 @@
         <v>596</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -36338,7 +36332,7 @@
         <v>640</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -38166,7 +38160,7 @@
         <v>808</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -38195,7 +38189,7 @@
         <v>812</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -38302,7 +38296,7 @@
         <v>822</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -39855,7 +39849,7 @@
         <v>960</v>
       </c>
       <c r="C372" s="33" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -39905,7 +39899,7 @@
         <v>964</v>
       </c>
       <c r="C374" s="15" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D374" s="16" t="s">
         <v>966</v>
@@ -40729,7 +40723,7 @@
         <v>1043</v>
       </c>
       <c r="C404" s="29" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -41822,7 +41816,7 @@
         <v>1141</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -42736,7 +42730,7 @@
         <v>1</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C480" s="20" t="s">
         <v>1217</v>
@@ -42765,7 +42759,7 @@
         <v>1</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C481" s="20" t="s">
         <v>1220</v>
@@ -43333,7 +43327,7 @@
         <v>1266</v>
       </c>
       <c r="C502" s="20" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -43900,7 +43894,7 @@
         <v>1318</v>
       </c>
       <c r="C523" s="12" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -44001,7 +43995,7 @@
         <v>1</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C527" s="20" t="s">
         <v>1329</v>
@@ -44030,7 +44024,7 @@
         <v>1</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C528" s="20" t="s">
         <v>1332</v>
@@ -44056,7 +44050,7 @@
         <v>1</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C529" s="20" t="s">
         <v>1334</v>
@@ -44082,7 +44076,7 @@
         <v>1</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C530" s="20" t="s">
         <v>1336</v>
@@ -44757,7 +44751,7 @@
         <v>1392</v>
       </c>
       <c r="C555" s="20" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -44861,7 +44855,7 @@
         <v>1400</v>
       </c>
       <c r="C559" s="17" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D559" s="19"/>
       <c r="E559" s="18" t="s">
@@ -46098,7 +46092,7 @@
         <v>1509</v>
       </c>
       <c r="C605" s="17" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D605" s="19"/>
       <c r="E605" s="18" t="s">
@@ -47408,10 +47402,10 @@
         <v>1</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C654" s="20" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
@@ -47489,7 +47483,7 @@
         <v>1626</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D657" s="19"/>
       <c r="E657" s="18" t="s">
@@ -47804,7 +47798,7 @@
         <v>1</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C669" s="20" t="s">
         <v>1651</v>
@@ -47962,7 +47956,7 @@
         <v>1</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C675" s="20" t="s">
         <v>1662</v>
@@ -48256,7 +48250,7 @@
         <v>1683</v>
       </c>
       <c r="C686" s="20" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
@@ -48366,7 +48360,7 @@
         <v>1693</v>
       </c>
       <c r="C690" s="20" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
@@ -48550,7 +48544,7 @@
         <v>1709</v>
       </c>
       <c r="C697" s="20" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
@@ -48817,7 +48811,7 @@
         <v>1730</v>
       </c>
       <c r="C707" s="20" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
@@ -49381,7 +49375,7 @@
         <v>1776</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
@@ -49462,7 +49456,7 @@
         <v>1783</v>
       </c>
       <c r="C731" s="20" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
@@ -49679,10 +49673,10 @@
         <v>1</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C739" s="20" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
